--- a/Timesheet and MOM/Timesheet.xlsx
+++ b/Timesheet and MOM/Timesheet.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Supatra\Documents\BubbleBeeDoc\Timesheet and MOM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
@@ -19,12 +14,12 @@
     <sheet name="Week#3" sheetId="5" r:id="rId5"/>
     <sheet name="TeamMember" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -332,6 +327,12 @@
   </si>
   <si>
     <t>Feasibility Study and Project Plan</t>
+  </si>
+  <si>
+    <t>ได้รับผิดชอบงานในแต่ล่ะส่วน  โดยมีการพูดภาพรวมคร่าวๆ เพื่อให้ทุกคนมองแผนงานไปในทิศทางเดียวกัน</t>
+  </si>
+  <si>
+    <t>เนื่องจากในแผนงานมีรายละเอียดมากมาย ซึ่งเมื่อทำมาแล้วอาจจะยังไม่ตรงกัน  จึงต้องมีการมารีวิวและปรับใหม่</t>
   </si>
 </sst>
 </file>
@@ -592,22 +593,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -617,40 +602,56 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,7 +714,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -748,7 +749,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -925,7 +926,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1028,42 +1029,42 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="32" t="s">
+      <c r="E8" s="47"/>
+      <c r="F8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
@@ -1260,13 +1261,13 @@
       <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="35"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="19">
         <f>SUM(F10:F19)</f>
         <v>20</v>
@@ -1364,42 +1365,42 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="32" t="s">
+      <c r="E8" s="47"/>
+      <c r="F8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
@@ -1564,13 +1565,13 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="35"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="19">
         <f>SUM(F10:F15)</f>
         <v>9</v>
@@ -1668,42 +1669,42 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="32" t="s">
+      <c r="E8" s="47"/>
+      <c r="F8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="43" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
@@ -1920,13 +1921,13 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="35"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="19">
         <f>SUM(F10:F15)</f>
         <v>20.5</v>
@@ -1965,225 +1966,231 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="41" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="41"/>
-    <col min="5" max="5" width="19.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="41" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="41" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="41"/>
+    <col min="1" max="1" width="16.85546875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="33"/>
+    <col min="5" max="5" width="19.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="33" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="36">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="35" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="58" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
+    <row r="8" spans="1:8" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="45" t="s">
+      <c r="E8" s="58"/>
+      <c r="F8" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="51" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
     </row>
     <row r="10" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50">
+      <c r="A10" s="38">
         <v>1</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="38">
         <v>0.5</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50">
+      <c r="E10" s="38"/>
+      <c r="F10" s="38">
         <f>SUM(D10:E10)</f>
         <v>0.5</v>
       </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50">
+      <c r="A11" s="38">
         <v>2</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="38">
         <v>0.5</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50">
-        <f>SUM(D10:E10)</f>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38">
+        <f>SUM(D11,E11)</f>
         <v>0.5</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50">
+      <c r="A12" s="38">
         <v>3</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="38">
         <v>0.5</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50">
-        <f>SUM(D11:E11)</f>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38">
+        <f>SUM(D12,E12)</f>
         <v>0.5</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50">
+      <c r="A13" s="38">
         <v>4</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="38">
+        <v>3</v>
+      </c>
+      <c r="E13" s="38">
+        <v>2</v>
+      </c>
+      <c r="F13" s="38">
+        <f>SUM(D13,E13)</f>
+        <v>5</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38">
+        <v>5</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="38">
         <v>0.5</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50">
-        <f>SUM(D12:E12)</f>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38">
+        <f>SUM(D14,E14)</f>
         <v>0.5</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-    </row>
-    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50">
-        <v>5</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50">
-        <f>SUM(D13:E13)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="50">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="38">
         <f>SUM(F10:F14)</f>
-        <v>2.5</v>
-      </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+        <v>7</v>
+      </c>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Timesheet and MOM/Timesheet.xlsx
+++ b/Timesheet and MOM/Timesheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
@@ -14,12 +14,12 @@
     <sheet name="Week#3" sheetId="5" r:id="rId5"/>
     <sheet name="TeamMember" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -334,12 +334,18 @@
   <si>
     <t>เนื่องจากในแผนงานมีรายละเอียดมากมาย ซึ่งเมื่อทำมาแล้วอาจจะยังไม่ตรงกัน  จึงต้องมีการมารีวิวและปรับใหม่</t>
   </si>
+  <si>
+    <t>ศึกษาการทำงานของธรุกิจ และบุคคลที่เกี่ยวข้องกับธุรกิจ</t>
+  </si>
+  <si>
+    <t>ภาษาที่ต้องการสื่อความหมายยังไม่ชัดเจนเท่าที่ควร</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -926,36 +932,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -967,12 +973,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="3" width="23.42578125" customWidth="1"/>
@@ -983,12 +989,12 @@
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="48" t="s">
         <v>14</v>
       </c>
@@ -1052,7 +1058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1">
       <c r="A9" s="44"/>
       <c r="B9" s="49"/>
       <c r="C9" s="44"/>
@@ -1066,7 +1072,7 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="51">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -1116,7 +1122,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -1139,7 +1145,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="12.75">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -1162,7 +1168,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="12.75">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1185,7 +1191,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75">
       <c r="A15" s="7">
         <v>6</v>
       </c>
@@ -1200,7 +1206,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75">
       <c r="A16" s="7">
         <v>7</v>
       </c>
@@ -1215,7 +1221,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="12.75">
       <c r="A17" s="7">
         <v>8</v>
       </c>
@@ -1230,7 +1236,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="12.75">
       <c r="A18" s="7">
         <v>9</v>
       </c>
@@ -1245,7 +1251,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="12.75">
       <c r="A19" s="7">
         <v>10</v>
       </c>
@@ -1260,7 +1266,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="12.75">
       <c r="A20" s="45" t="s">
         <v>44</v>
       </c>
@@ -1303,12 +1309,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
@@ -1319,12 +1325,12 @@
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1348,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1356,7 +1362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="48" t="s">
         <v>14</v>
       </c>
@@ -1388,7 +1394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -1402,7 +1408,7 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="25.5">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="51">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="51">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="25.5">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -1510,7 +1516,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="25.5">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="25.5">
       <c r="A15" s="7">
         <v>6</v>
       </c>
@@ -1564,7 +1570,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75">
       <c r="A16" s="45" t="s">
         <v>44</v>
       </c>
@@ -1607,12 +1613,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
@@ -1623,12 +1629,12 @@
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="18">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="12.75">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="12.75">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="12.75">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="12.75">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1660,7 +1666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="12.75">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="20.25" customHeight="1">
       <c r="A8" s="50" t="s">
         <v>14</v>
       </c>
@@ -1692,7 +1698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="23.25" customHeight="1">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -1706,7 +1712,7 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="25.5">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1750,7 +1756,7 @@
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
     </row>
-    <row r="11" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="25.5">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -1794,7 +1800,7 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
     </row>
-    <row r="12" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="38.25">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -1840,7 +1846,7 @@
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="63.75">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -1867,7 +1873,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="63.75">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1894,7 +1900,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="51">
       <c r="A15" s="7">
         <v>6</v>
       </c>
@@ -1920,7 +1926,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="12.75">
       <c r="A16" s="45" t="s">
         <v>44</v>
       </c>
@@ -1963,14 +1969,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="33" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="33" customWidth="1"/>
@@ -1983,12 +1989,12 @@
     <col min="9" max="16384" width="14.42578125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12.75">
       <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75">
       <c r="A2" s="32" t="s">
         <v>5</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75">
       <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75">
       <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="32" t="s">
         <v>9</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75">
       <c r="A6" s="32" t="s">
         <v>11</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="42" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="56" t="s">
         <v>14</v>
       </c>
@@ -2052,7 +2058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1">
       <c r="A9" s="52"/>
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
@@ -2066,7 +2072,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
     </row>
-    <row r="10" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="54.75" customHeight="1">
       <c r="A10" s="38">
         <v>1</v>
       </c>
@@ -2087,7 +2093,7 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="56.25" customHeight="1">
       <c r="A11" s="38">
         <v>2</v>
       </c>
@@ -2108,7 +2114,7 @@
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
     </row>
-    <row r="12" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="55.5" customHeight="1">
       <c r="A12" s="38">
         <v>3</v>
       </c>
@@ -2129,7 +2135,7 @@
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="57.75" customHeight="1">
       <c r="A13" s="38">
         <v>4</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="55.5" customHeight="1">
       <c r="A14" s="38">
         <v>5</v>
       </c>
@@ -2167,17 +2173,23 @@
         <v>95</v>
       </c>
       <c r="D14" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="38"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="38">
+        <v>2</v>
+      </c>
       <c r="F14" s="38">
         <f>SUM(D14,E14)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="12.75">
       <c r="A15" s="53" t="s">
         <v>44</v>
       </c>
@@ -2187,7 +2199,7 @@
       <c r="E15" s="55"/>
       <c r="F15" s="38">
         <f>SUM(F10:F14)</f>
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
@@ -2221,12 +2233,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="19" customWidth="1"/>
@@ -2235,7 +2247,7 @@
     <col min="9" max="9" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>51</v>
       </c>
@@ -2284,7 +2296,7 @@
       <c r="AB1" s="22"/>
       <c r="AC1" s="22"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2313,7 +2325,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -2342,7 +2354,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -2371,7 +2383,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -2390,7 +2402,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1">
       <c r="A6" s="25">
         <v>5</v>
       </c>

--- a/Timesheet and MOM/Timesheet.xlsx
+++ b/Timesheet and MOM/Timesheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
@@ -14,12 +14,12 @@
     <sheet name="Week#3" sheetId="5" r:id="rId5"/>
     <sheet name="TeamMember" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="103">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -340,12 +340,18 @@
   <si>
     <t>ภาษาที่ต้องการสื่อความหมายยังไม่ชัดเจนเท่าที่ควร</t>
   </si>
+  <si>
+    <t>รับผิดชอบงานวิเคราะห์ความเป็นไปได้ทางเทคโนโลยี, ศึกษาเทคโนโลยีและเครื่องมือที่ใช้ในการพัฒนาระบบ โดยมีการปรึกษาร่วมกันกับสมาชิกกลุ่ม</t>
+  </si>
+  <si>
+    <t>เนื่องจากมีความรู้ความเข้าใจเกี่ยวกับเทคโนโลยีและเครื่องมือที่ใช้ในการพัฒนาระบบน้อย ทำให้เขียนรายละเอียดเกี่ยวกับงานไม่ถูกต้อง แก้ปัญหาโดย สอบถามปัญหาหรือเรื่องที่ไม่เข้าใจจากพี่ที่ทำงานและสมาชิกกลุ่ม</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -932,36 +938,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -973,12 +979,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="3" width="23.42578125" customWidth="1"/>
@@ -989,12 +995,12 @@
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>14</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
       <c r="B9" s="49"/>
       <c r="C9" s="44"/>
@@ -1072,7 +1078,7 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:8" ht="51">
+    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75">
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -1122,7 +1128,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75">
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -1145,7 +1151,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75">
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -1168,7 +1174,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75">
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1191,7 +1197,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75">
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>6</v>
       </c>
@@ -1206,7 +1212,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75">
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>7</v>
       </c>
@@ -1221,7 +1227,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75">
+    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>8</v>
       </c>
@@ -1236,7 +1242,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" ht="12.75">
+    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>9</v>
       </c>
@@ -1251,7 +1257,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" ht="12.75">
+    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>10</v>
       </c>
@@ -1266,7 +1272,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" ht="12.75">
+    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
         <v>44</v>
       </c>
@@ -1309,12 +1315,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
@@ -1325,12 +1331,12 @@
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1338,7 +1344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1346,7 +1352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1362,7 +1368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1370,7 +1376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>14</v>
       </c>
@@ -1394,7 +1400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -1408,7 +1414,7 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:8" ht="25.5">
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="51">
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -1462,7 +1468,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="51">
+    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -1489,7 +1495,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="25.5">
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -1516,7 +1522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25.5">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1543,7 +1549,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="25.5">
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>6</v>
       </c>
@@ -1570,7 +1576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75">
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
         <v>44</v>
       </c>
@@ -1613,12 +1619,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
@@ -1629,12 +1635,12 @@
     <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="12.75">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1642,7 +1648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="12.75">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="12.75">
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="12.75">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="12.75">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1674,7 +1680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.25" customHeight="1">
+    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
         <v>14</v>
       </c>
@@ -1698,7 +1704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23.25" customHeight="1">
+    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -1712,7 +1718,7 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:27" ht="25.5">
+    <row r="10" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1756,7 +1762,7 @@
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
     </row>
-    <row r="11" spans="1:27" ht="25.5">
+    <row r="11" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -1800,7 +1806,7 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
     </row>
-    <row r="12" spans="1:27" ht="38.25">
+    <row r="12" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -1846,7 +1852,7 @@
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:27" ht="63.75">
+    <row r="13" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -1873,7 +1879,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="63.75">
+    <row r="14" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1900,7 +1906,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="51">
+    <row r="15" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>6</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="12.75">
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
         <v>44</v>
       </c>
@@ -1969,14 +1975,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="33" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="33" customWidth="1"/>
@@ -1989,12 +1995,12 @@
     <col min="9" max="16384" width="14.42578125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75">
+    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>5</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
@@ -2010,7 +2016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>9</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>11</v>
       </c>
@@ -2034,7 +2040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="42" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:8" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="56" t="s">
         <v>14</v>
       </c>
@@ -2058,7 +2064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="52"/>
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
@@ -2072,7 +2078,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
     </row>
-    <row r="10" spans="1:8" ht="54.75" customHeight="1">
+    <row r="10" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38">
         <v>1</v>
       </c>
@@ -2093,7 +2099,7 @@
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
     </row>
-    <row r="11" spans="1:8" ht="56.25" customHeight="1">
+    <row r="11" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="38">
         <v>2</v>
       </c>
@@ -2104,17 +2110,23 @@
         <v>92</v>
       </c>
       <c r="D11" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="38"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="38">
+        <v>2</v>
+      </c>
       <c r="F11" s="38">
         <f>SUM(D11,E11)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-    </row>
-    <row r="12" spans="1:8" ht="55.5" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38">
         <v>3</v>
       </c>
@@ -2135,7 +2147,7 @@
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:8" ht="57.75" customHeight="1">
+    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38">
         <v>4</v>
       </c>
@@ -2162,7 +2174,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="55.5" customHeight="1">
+    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38">
         <v>5</v>
       </c>
@@ -2189,7 +2201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75">
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
         <v>44</v>
       </c>
@@ -2199,7 +2211,7 @@
       <c r="E15" s="55"/>
       <c r="F15" s="38">
         <f>SUM(F10:F14)</f>
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
@@ -2233,12 +2245,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="19" customWidth="1"/>
@@ -2247,7 +2259,7 @@
     <col min="9" max="9" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>51</v>
       </c>
@@ -2296,7 +2308,7 @@
       <c r="AB1" s="22"/>
       <c r="AC1" s="22"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2325,7 +2337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -2354,7 +2366,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -2383,7 +2395,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -2402,7 +2414,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>5</v>
       </c>

--- a/Timesheet and MOM/Timesheet.xlsx
+++ b/Timesheet and MOM/Timesheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25203"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="13820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,17 @@
     <sheet name="Week#3" sheetId="5" r:id="rId5"/>
     <sheet name="TeamMember" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -345,13 +350,19 @@
   </si>
   <si>
     <t>เนื่องจากมีความรู้ความเข้าใจเกี่ยวกับเทคโนโลยีและเครื่องมือที่ใช้ในการพัฒนาระบบน้อย ทำให้เขียนรายละเอียดเกี่ยวกับงานไม่ถูกต้อง แก้ปัญหาโดย สอบถามปัญหาหรือเรื่องที่ไม่เข้าใจจากพี่ที่ทำงานและสมาชิกกลุ่ม</t>
+  </si>
+  <si>
+    <t xml:space="preserve">บางคนในทีมต้อง​โอเวอร์โหลดเกินกว่าคนอืน </t>
+  </si>
+  <si>
+    <t xml:space="preserve">แบ่งหน้าที่รับผิดชอบ หาข้อมูล และนำมารวบรวมในเอกสาร </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -400,6 +411,10 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Sathu"/>
     </font>
   </fonts>
   <fills count="3">
@@ -528,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -665,6 +680,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,7 +956,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -950,24 +968,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -975,6 +993,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -984,23 +1007,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1008,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1024,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,7 +1055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1040,7 +1063,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="48" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1">
       <c r="A9" s="44"/>
       <c r="B9" s="49"/>
       <c r="C9" s="44"/>
@@ -1078,7 +1101,7 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="48">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1105,7 +1128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -1128,7 +1151,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -1151,7 +1174,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="12">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -1174,7 +1197,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="12">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1197,7 +1220,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12">
       <c r="A15" s="7">
         <v>6</v>
       </c>
@@ -1212,7 +1235,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12">
       <c r="A16" s="7">
         <v>7</v>
       </c>
@@ -1227,7 +1250,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="12">
       <c r="A17" s="7">
         <v>8</v>
       </c>
@@ -1242,7 +1265,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="12">
       <c r="A18" s="7">
         <v>9</v>
       </c>
@@ -1257,7 +1280,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="12">
       <c r="A19" s="7">
         <v>10</v>
       </c>
@@ -1272,7 +1295,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="12">
       <c r="A20" s="45" t="s">
         <v>44</v>
       </c>
@@ -1310,6 +1333,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -1320,23 +1346,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="17">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1344,7 +1370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1352,7 +1378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1360,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1368,7 +1394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1376,7 +1402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="48" t="s">
         <v>14</v>
       </c>
@@ -1400,7 +1426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -1414,7 +1440,7 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="24">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1441,7 +1467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="36">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -1468,7 +1494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="60">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -1495,7 +1521,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="24">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -1522,7 +1548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="24">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1549,7 +1575,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="7">
         <v>6</v>
       </c>
@@ -1576,7 +1602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12">
       <c r="A16" s="45" t="s">
         <v>44</v>
       </c>
@@ -1614,6 +1640,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -1624,23 +1653,23 @@
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="17">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="12">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1648,7 +1677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="12">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1656,7 +1685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="12">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +1693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="12">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +1701,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="12">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1680,7 +1709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="20.25" customHeight="1">
       <c r="A8" s="50" t="s">
         <v>14</v>
       </c>
@@ -1704,7 +1733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="23.25" customHeight="1">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -1718,7 +1747,7 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="24">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1762,7 +1791,7 @@
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
     </row>
-    <row r="11" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="36">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -1806,7 +1835,7 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
     </row>
-    <row r="12" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="36">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -1852,7 +1881,7 @@
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="60">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -1879,7 +1908,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="60">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1906,7 +1935,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="48">
       <c r="A15" s="7">
         <v>6</v>
       </c>
@@ -1932,7 +1961,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="12">
       <c r="A16" s="45" t="s">
         <v>44</v>
       </c>
@@ -1970,6 +1999,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -1978,29 +2010,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="33" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="33"/>
-    <col min="5" max="5" width="19.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="33" customWidth="1"/>
-    <col min="9" max="16384" width="14.42578125" style="33"/>
+    <col min="1" max="1" width="16.83203125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="33" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="33"/>
+    <col min="5" max="5" width="19.83203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="33" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="33" customWidth="1"/>
+    <col min="9" max="16384" width="14.5" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12">
       <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12">
       <c r="A2" s="32" t="s">
         <v>5</v>
       </c>
@@ -2008,7 +2040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12">
       <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
@@ -2016,7 +2048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12">
       <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
@@ -2024,7 +2056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12">
       <c r="A5" s="32" t="s">
         <v>9</v>
       </c>
@@ -2032,7 +2064,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12">
       <c r="A6" s="32" t="s">
         <v>11</v>
       </c>
@@ -2040,7 +2072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="42" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="56" t="s">
         <v>14</v>
       </c>
@@ -2064,7 +2096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1">
       <c r="A9" s="52"/>
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
@@ -2078,7 +2110,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
     </row>
-    <row r="10" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="54.75" customHeight="1">
       <c r="A10" s="38">
         <v>1</v>
       </c>
@@ -2089,17 +2121,23 @@
         <v>91</v>
       </c>
       <c r="D10" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="38"/>
+        <v>3</v>
+      </c>
+      <c r="E10" s="38">
+        <v>2</v>
+      </c>
       <c r="F10" s="38">
         <f>SUM(D10:E10)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-    </row>
-    <row r="11" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="84">
       <c r="A11" s="38">
         <v>2</v>
       </c>
@@ -2126,7 +2164,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="55.5" customHeight="1">
       <c r="A12" s="38">
         <v>3</v>
       </c>
@@ -2147,7 +2185,7 @@
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
     </row>
-    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="57.75" customHeight="1">
       <c r="A13" s="38">
         <v>4</v>
       </c>
@@ -2174,7 +2212,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="55.5" customHeight="1">
       <c r="A14" s="38">
         <v>5</v>
       </c>
@@ -2201,7 +2239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12">
       <c r="A15" s="53" t="s">
         <v>44</v>
       </c>
@@ -2211,7 +2249,7 @@
       <c r="E15" s="55"/>
       <c r="F15" s="38">
         <f>SUM(F10:F14)</f>
-        <v>18</v>
+        <v>22.5</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
@@ -2228,7 +2266,7 @@
     <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -2240,6 +2278,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -2250,16 +2291,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>51</v>
       </c>
@@ -2308,7 +2349,7 @@
       <c r="AB1" s="22"/>
       <c r="AC1" s="22"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2337,7 +2378,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -2366,7 +2407,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -2395,7 +2436,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -2414,7 +2455,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -2435,5 +2476,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Timesheet and MOM/Timesheet.xlsx
+++ b/Timesheet and MOM/Timesheet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\BubbleBeeDoc\Timesheet and MOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="13820" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23280" windowHeight="13820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="Week#3" sheetId="5" r:id="rId5"/>
     <sheet name="TeamMember" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="107">
   <si>
     <t>วิธีการกรอก</t>
   </si>
@@ -356,13 +361,19 @@
   </si>
   <si>
     <t xml:space="preserve">แบ่งหน้าที่รับผิดชอบ หาข้อมูล และนำมารวบรวมในเอกสาร </t>
+  </si>
+  <si>
+    <t>มีการประชุมร่วมกันในหัวข้อที่เกิดปัญหาในการทำงานอย่างไร หาแนวทางแก้ไข และได้มอบหมายหัวข้อที่จะดำเนินการตามที่ตัวเองถนัด</t>
+  </si>
+  <si>
+    <t>เวลาในการตรวจทานเอกสารรวมของทีมไม่มากพอ ทำให้บางเรื่องที่เราไม่ถนัดไม่ได้รับการพัฒนา</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -647,6 +658,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -680,9 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -956,7 +967,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -968,7 +979,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -1007,23 +1018,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="3" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12">
+    <row r="2" spans="1:8" ht="13">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12">
+    <row r="3" spans="1:8" ht="13">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1039,7 +1050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12">
+    <row r="4" spans="1:8" ht="13">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1047,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12">
+    <row r="5" spans="1:8" ht="13">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,7 +1066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12">
+    <row r="6" spans="1:8" ht="13">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1064,44 +1075,44 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48" t="s">
+      <c r="E8" s="48"/>
+      <c r="F8" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="44" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="44"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="1:8" ht="48">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:8" ht="50">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1128,7 +1139,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12">
+    <row r="11" spans="1:8" ht="12.5">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -1151,7 +1162,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="12">
+    <row r="12" spans="1:8" ht="12.5">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -1174,7 +1185,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="12">
+    <row r="13" spans="1:8" ht="12.5">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -1197,7 +1208,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="12">
+    <row r="14" spans="1:8" ht="12.5">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1220,7 +1231,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="12">
+    <row r="15" spans="1:8" ht="12.5">
       <c r="A15" s="7">
         <v>6</v>
       </c>
@@ -1235,7 +1246,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="12">
+    <row r="16" spans="1:8" ht="12.5">
       <c r="A16" s="7">
         <v>7</v>
       </c>
@@ -1250,7 +1261,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="12">
+    <row r="17" spans="1:8" ht="12.5">
       <c r="A17" s="7">
         <v>8</v>
       </c>
@@ -1265,7 +1276,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" ht="12">
+    <row r="18" spans="1:8" ht="12.5">
       <c r="A18" s="7">
         <v>9</v>
       </c>
@@ -1280,7 +1291,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" ht="12">
+    <row r="19" spans="1:8" ht="12.5">
       <c r="A19" s="7">
         <v>10</v>
       </c>
@@ -1295,14 +1306,14 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" ht="12">
-      <c r="A20" s="45" t="s">
+    <row r="20" spans="1:8" ht="13">
+      <c r="A20" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="19">
         <f>SUM(F10:F19)</f>
         <v>20</v>
@@ -1346,23 +1357,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
+    <row r="1" spans="1:8" ht="18">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12">
+    <row r="2" spans="1:8" ht="13">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1370,7 +1381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12">
+    <row r="3" spans="1:8" ht="13">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1378,7 +1389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12">
+    <row r="4" spans="1:8" ht="13">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1386,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12">
+    <row r="5" spans="1:8" ht="13">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1394,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12">
+    <row r="6" spans="1:8" ht="13">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1403,44 +1414,44 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48" t="s">
+      <c r="E8" s="48"/>
+      <c r="F8" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="44" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="1:8" ht="24">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:8" ht="25">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1467,7 +1478,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="36">
+    <row r="11" spans="1:8" ht="37.5">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -1494,7 +1505,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="60">
+    <row r="12" spans="1:8" ht="50">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -1521,7 +1532,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24">
+    <row r="13" spans="1:8" ht="25">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -1548,7 +1559,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24">
+    <row r="14" spans="1:8" ht="25">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1575,7 +1586,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="24">
+    <row r="15" spans="1:8" ht="25">
       <c r="A15" s="7">
         <v>6</v>
       </c>
@@ -1602,14 +1613,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:8" ht="13">
+      <c r="A16" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="19">
         <f>SUM(F10:F15)</f>
         <v>9</v>
@@ -1653,23 +1664,23 @@
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="3" max="3" width="31.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" customWidth="1"/>
+    <col min="8" max="8" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17">
+    <row r="1" spans="1:27" ht="18">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="12">
+    <row r="2" spans="1:27" ht="13">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1677,7 +1688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="12">
+    <row r="3" spans="1:27" ht="13">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1685,7 +1696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="12">
+    <row r="4" spans="1:27" ht="13">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1693,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="12">
+    <row r="5" spans="1:27" ht="13">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1701,7 +1712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="12">
+    <row r="6" spans="1:27" ht="13">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1710,44 +1721,44 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="20.25" customHeight="1">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48" t="s">
+      <c r="E8" s="48"/>
+      <c r="F8" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="44" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="23.25" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="1:27" ht="24">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="1:27" ht="25">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1791,7 +1802,7 @@
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
     </row>
-    <row r="11" spans="1:27" ht="36">
+    <row r="11" spans="1:27" ht="25">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -1835,7 +1846,7 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
     </row>
-    <row r="12" spans="1:27" ht="36">
+    <row r="12" spans="1:27" ht="37.5">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -1881,7 +1892,7 @@
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:27" ht="60">
+    <row r="13" spans="1:27" ht="62.5">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -1908,7 +1919,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="60">
+    <row r="14" spans="1:27" ht="62.5">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1935,7 +1946,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="48">
+    <row r="15" spans="1:27" ht="50">
       <c r="A15" s="7">
         <v>6</v>
       </c>
@@ -1961,14 +1972,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="12">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:27" ht="13">
+      <c r="A16" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="19">
         <f>SUM(F10:F15)</f>
         <v>20.5</v>
@@ -2010,29 +2021,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="33" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="33"/>
-    <col min="5" max="5" width="19.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5" style="33" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="33" customWidth="1"/>
-    <col min="9" max="16384" width="14.5" style="33"/>
+    <col min="1" max="1" width="16.81640625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="43.6328125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="33"/>
+    <col min="5" max="5" width="19.81640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.453125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="26.6328125" style="33" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12">
+    <row r="1" spans="1:8" ht="13">
       <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12">
+    <row r="2" spans="1:8" ht="13">
       <c r="A2" s="32" t="s">
         <v>5</v>
       </c>
@@ -2040,7 +2051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12">
+    <row r="3" spans="1:8" ht="13">
       <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
@@ -2048,7 +2059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12">
+    <row r="4" spans="1:8" ht="13">
       <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
@@ -2056,7 +2067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12">
+    <row r="5" spans="1:8" ht="13">
       <c r="A5" s="32" t="s">
         <v>9</v>
       </c>
@@ -2064,7 +2075,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12">
+    <row r="6" spans="1:8" ht="13">
       <c r="A6" s="32" t="s">
         <v>11</v>
       </c>
@@ -2073,42 +2084,42 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="42" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="56" t="s">
+      <c r="E8" s="59"/>
+      <c r="F8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="51" t="s">
+      <c r="H8" s="52" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="37" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
     </row>
     <row r="10" spans="1:8" ht="54.75" customHeight="1">
       <c r="A10" s="38">
@@ -2130,14 +2141,14 @@
         <f>SUM(D10:E10)</f>
         <v>5</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="84">
+    <row r="11" spans="1:8" ht="87.5">
       <c r="A11" s="38">
         <v>2</v>
       </c>
@@ -2175,15 +2186,21 @@
         <v>93</v>
       </c>
       <c r="D12" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="38"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="38">
+        <v>2</v>
+      </c>
       <c r="F12" s="38">
         <f>SUM(D12,E12)</f>
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="57.75" customHeight="1">
       <c r="A13" s="38">
@@ -2239,17 +2256,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12">
-      <c r="A15" s="53" t="s">
+    <row r="15" spans="1:8" ht="13">
+      <c r="A15" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="38">
         <f>SUM(F10:F14)</f>
-        <v>22.5</v>
+        <v>27</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
@@ -2291,13 +2308,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="9" max="9" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" customWidth="1"/>
+    <col min="9" max="9" width="29.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1">

--- a/Timesheet and MOM/Timesheet.xlsx
+++ b/Timesheet and MOM/Timesheet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\BubbleBeeDoc\Timesheet and MOM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23280" windowHeight="13820" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="1" r:id="rId1"/>
@@ -19,6 +14,9 @@
     <sheet name="Week#3" sheetId="5" r:id="rId5"/>
     <sheet name="TeamMember" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Week#3'!$A$1:$H$16</definedName>
+  </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -373,7 +371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -967,7 +965,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -979,24 +977,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1018,23 +1016,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="3" width="23.453125" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1042,7 +1039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1050,7 +1047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,7 +1063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1074,7 +1071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="49" t="s">
         <v>14</v>
       </c>
@@ -1098,7 +1095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="50"/>
       <c r="C9" s="45"/>
@@ -1112,7 +1109,7 @@
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" ht="50">
+    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1139,7 +1136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.5">
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -1162,7 +1159,7 @@
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="12.5">
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -1185,7 +1182,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="12.5">
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -1208,7 +1205,7 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="12.5">
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1231,7 +1228,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="12.5">
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>6</v>
       </c>
@@ -1246,7 +1243,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="12.5">
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>7</v>
       </c>
@@ -1261,7 +1258,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="12.5">
+    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>8</v>
       </c>
@@ -1276,7 +1273,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" ht="12.5">
+    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>9</v>
       </c>
@@ -1291,7 +1288,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" ht="12.5">
+    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>10</v>
       </c>
@@ -1306,7 +1303,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" ht="13">
+    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="46" t="s">
         <v>44</v>
       </c>
@@ -1357,23 +1354,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
-    <col min="3" max="3" width="26.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1381,7 +1378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1389,7 +1386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1405,7 +1402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1413,7 +1410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="49" t="s">
         <v>14</v>
       </c>
@@ -1437,7 +1434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
@@ -1451,7 +1448,7 @@
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:8" ht="25">
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1478,7 +1475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="37.5">
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -1505,7 +1502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="50">
+    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -1532,7 +1529,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="25">
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -1559,7 +1556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1586,7 +1583,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="25">
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>6</v>
       </c>
@@ -1613,7 +1610,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13">
+    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="s">
         <v>44</v>
       </c>
@@ -1664,23 +1661,23 @@
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
-    <col min="3" max="3" width="31.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" customWidth="1"/>
-    <col min="8" max="8" width="26.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18">
+    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="13">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1688,7 +1685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="13">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1696,7 +1693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="13">
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1704,7 +1701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="13">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1712,7 +1709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="13">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1720,7 +1717,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="20.25" customHeight="1">
+    <row r="8" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="51" t="s">
         <v>14</v>
       </c>
@@ -1744,7 +1741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="23.25" customHeight="1">
+    <row r="9" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45"/>
@@ -1758,7 +1755,7 @@
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
     </row>
-    <row r="10" spans="1:27" ht="25">
+    <row r="10" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -1802,7 +1799,7 @@
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
     </row>
-    <row r="11" spans="1:27" ht="25">
+    <row r="11" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -1846,7 +1843,7 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
     </row>
-    <row r="12" spans="1:27" ht="37.5">
+    <row r="12" spans="1:27" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>3</v>
       </c>
@@ -1892,7 +1889,7 @@
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:27" ht="62.5">
+    <row r="13" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>4</v>
       </c>
@@ -1919,7 +1916,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="62.5">
+    <row r="14" spans="1:27" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>5</v>
       </c>
@@ -1946,7 +1943,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="50">
+    <row r="15" spans="1:27" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>6</v>
       </c>
@@ -1972,7 +1969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="13">
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="46" t="s">
         <v>44</v>
       </c>
@@ -2021,29 +2018,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="21.453125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="43.6328125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="33"/>
-    <col min="5" max="5" width="19.81640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="26.6328125" style="33" customWidth="1"/>
-    <col min="9" max="16384" width="14.453125" style="33"/>
+    <col min="1" max="1" width="16.85546875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="33"/>
+    <col min="5" max="5" width="19.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" style="33" customWidth="1"/>
+    <col min="9" max="16384" width="14.42578125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13">
+    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13">
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>5</v>
       </c>
@@ -2051,7 +2048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>6</v>
       </c>
@@ -2059,7 +2056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13">
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
@@ -2067,7 +2064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13">
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>9</v>
       </c>
@@ -2075,7 +2072,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>11</v>
       </c>
@@ -2083,7 +2080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="42" customFormat="1" ht="20.25" customHeight="1">
+    <row r="8" spans="1:8" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="57" t="s">
         <v>14</v>
       </c>
@@ -2107,7 +2104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="53"/>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -2121,7 +2118,7 @@
       <c r="G9" s="53"/>
       <c r="H9" s="53"/>
     </row>
-    <row r="10" spans="1:8" ht="54.75" customHeight="1">
+    <row r="10" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="38">
         <v>1</v>
       </c>
@@ -2148,7 +2145,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="87.5">
+    <row r="11" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="38">
         <v>2</v>
       </c>
@@ -2175,7 +2172,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="55.5" customHeight="1">
+    <row r="12" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38">
         <v>3</v>
       </c>
@@ -2202,7 +2199,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="57.75" customHeight="1">
+    <row r="13" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="38">
         <v>4</v>
       </c>
@@ -2229,7 +2226,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="55.5" customHeight="1">
+    <row r="14" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="38">
         <v>5</v>
       </c>
@@ -2256,7 +2253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13">
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
         <v>44</v>
       </c>
@@ -2283,7 +2280,10 @@
     <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -2308,16 +2308,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" customWidth="1"/>
-    <col min="9" max="9" width="29.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>51</v>
       </c>
@@ -2366,7 +2366,7 @@
       <c r="AB1" s="22"/>
       <c r="AC1" s="22"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1">
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -2472,7 +2472,7 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1">
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>5</v>
       </c>
